--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_9_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_9_sawtooth_01_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2436276150095106</v>
+        <v>0.03088522663195259</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2436276150095106</v>
+        <v>0.03088522663195259</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>4.994632614533153</v>
+        <v>8.366330064670988</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.8904135924434247, 12.87967882150973]</t>
+          <t>[0.4220105455069927, 16.310649583834984]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.2085741489326218</v>
+        <v>0.03945687276303933</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2085741489326218</v>
+        <v>0.03945687276303933</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.176158274558695</v>
+        <v>-1.735895039821387</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-5.314606190757507, 0.9622896416401172]</t>
+          <t>[-3.00636894577762, -0.4654211338651546]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.16939869824076</v>
+        <v>0.008508721077293391</v>
       </c>
       <c r="S2" t="n">
-        <v>0.16939869824076</v>
+        <v>0.008508721077293391</v>
       </c>
       <c r="T2" t="n">
-        <v>10.00984139034323</v>
+        <v>15.76630018937874</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[5.873713348543214, 14.145969432143245]</t>
+          <t>[11.303342192235096, 20.229258186522383]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.396221518668028e-05</v>
+        <v>6.877407310312833e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>1.396221518668028e-05</v>
+        <v>6.877407310312833e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>9.001541541541755</v>
+        <v>7.111351351351512</v>
       </c>
       <c r="Y2" t="n">
-        <v>-3.980450450450547</v>
+        <v>1.906666666666709</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.98353353353406</v>
+        <v>12.31603603603632</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3629761457965979</v>
+        <v>0.5392646843658997</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3629761457965979</v>
+        <v>0.5392646843658997</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>4.812189733973506</v>
+        <v>3.8274407230112</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-3.914910520668176, 13.539289988615188]</t>
+          <t>[-5.973965464637178, 13.628846910659579]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.2726431843252466</v>
+        <v>0.435693769989218</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2726431843252466</v>
+        <v>0.435693769989218</v>
       </c>
       <c r="P3" t="n">
-        <v>-1.534631846798618</v>
+        <v>-0.9182633181663862</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.673079762997431, 1.603816069400195]</t>
+          <t>[-4.050421759583237, 2.213895123250465]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.3299625397494053</v>
+        <v>0.5578227987402717</v>
       </c>
       <c r="S3" t="n">
-        <v>0.3299625397494053</v>
+        <v>0.5578227987402717</v>
       </c>
       <c r="T3" t="n">
-        <v>13.29205690718242</v>
+        <v>14.76942864295605</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[8.340752288075478, 18.243361526289352]</t>
+          <t>[9.751839292785473, 19.78701799312662]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>2.347237974875682e-06</v>
+        <v>3.985362753144983e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>2.347237974875682e-06</v>
+        <v>3.985362753144983e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>6.347907907908063</v>
+        <v>3.761801801801887</v>
       </c>
       <c r="Y3" t="n">
-        <v>-6.634084084084243</v>
+        <v>-9.069549549549757</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.32989989990037</v>
+        <v>16.59315315315353</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1698252094857866</v>
+        <v>0.09957213720439895</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1698252094857866</v>
+        <v>0.09957213720439895</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.871026350920869</v>
+        <v>7.274650036110756</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.2027184459285705, 15.944771147770307]</t>
+          <t>[-1.9240086327748616, 16.473308704996374]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1342160700746624</v>
+        <v>0.1181993319677515</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1342160700746624</v>
+        <v>0.1181993319677515</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.496894998106848</v>
+        <v>-2.188737224122619</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-3.9183427891620433, 0.9245527929483472]</t>
+          <t>[-5.132211422080623, 0.7547369738353851]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.219546486084937</v>
+        <v>0.1412021325010333</v>
       </c>
       <c r="S4" t="n">
-        <v>0.219546486084937</v>
+        <v>0.1412021325010333</v>
       </c>
       <c r="T4" t="n">
-        <v>14.95646104734403</v>
+        <v>17.51074565970484</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[9.647883472881691, 20.265038621806372]</t>
+          <t>[12.836399499346562, 22.185091820063114]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>9.473342370558413e-07</v>
+        <v>1.595824361544373e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>9.473342370558413e-07</v>
+        <v>1.595824361544373e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>6.191811811811959</v>
+        <v>8.966486486486691</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.824354354354444</v>
+        <v>-3.09189189189196</v>
       </c>
       <c r="Z4" t="n">
-        <v>16.20797797797836</v>
+        <v>21.02486486486534</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.74000000000058</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1092169861924388</v>
+        <v>0.2169868304656777</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1092169861924388</v>
+        <v>0.2169868304656777</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>8.322879889602193</v>
+        <v>5.716783786303225</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-1.1359104372353137, 17.7816702164397]</t>
+          <t>[-2.755493627845752, 14.189061200452201]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.08312686499851751</v>
+        <v>0.180905559062615</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08312686499851751</v>
+        <v>0.180905559062615</v>
       </c>
       <c r="P5" t="n">
-        <v>3.100711067507043</v>
+        <v>-2.591263610168158</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.566079220708425, 4.635342914305661]</t>
+          <t>[-5.704553627239124, 0.5220264069028087]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.0001877864655668304</v>
+        <v>0.1005978227318052</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0001877864655668304</v>
+        <v>0.1005978227318052</v>
       </c>
       <c r="T5" t="n">
-        <v>12.12788755630345</v>
+        <v>11.70759770551955</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[6.801757973073955, 17.45401713953294]</t>
+          <t>[7.270544167264392, 16.14465124377471]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.597212265593619e-05</v>
+        <v>3.207861656306932e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>3.597212265593619e-05</v>
+        <v>3.207861656306932e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>13.16410410410442</v>
+        <v>10.61549549549574</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.81619619619636</v>
+        <v>-2.138558558558607</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.51201201201248</v>
+        <v>23.36954954955008</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,73 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.19535342897046</v>
+        <v>0.0225850289648839</v>
       </c>
       <c r="I6" t="n">
-        <v>0.19535342897046</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.052343026616398</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.052343026616398</v>
-      </c>
+        <v>0.0225850289648839</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>6.630793180050551</v>
+        <v>8.600553477315366</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-3.07530511245092, 16.336891472552022]</t>
+          <t>[0.6789823856655239, 16.522124568965207]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.1756469383742452</v>
+        <v>0.0340010614338786</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1756469383742452</v>
+        <v>0.0340010614338786</v>
       </c>
       <c r="P6" t="n">
-        <v>2.735921530153273</v>
+        <v>-2.578684660604235</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.2515789912784623, 5.7234220515850085]</t>
+          <t>[-3.7611059196130063, -1.3962634015954634]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.07169971620626092</v>
+        <v>6.735063922103102e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.07169971620626092</v>
+        <v>6.735063922103102e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>12.99396894665506</v>
+        <v>14.29289585335755</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.67715476150034, 18.310783131809774]</t>
+          <t>[10.008000163740096, 18.577791542975007]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.190817326479632e-05</v>
+        <v>2.669238230446069e-08</v>
       </c>
       <c r="W6" t="n">
-        <v>1.190817326479632e-05</v>
+        <v>2.669238230446069e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>12.42042042042042</v>
+        <v>9.250650650650687</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.95995995995996</v>
+        <v>5.008888888888908</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.88088088088088</v>
+        <v>13.49241241241247</v>
       </c>
     </row>
     <row r="7">
@@ -1015,73 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5392770737987926</v>
+        <v>0.0712209355252742</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5392770737987926</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5091855822806182</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.5091855822806182</v>
-      </c>
+        <v>0.0712209355252742</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>3.828479348154779</v>
+        <v>7.270032452280033</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-5.431639025304278, 13.088597721613837]</t>
+          <t>[-0.6606236369680367, 15.200688541528102]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4094084876720183</v>
+        <v>0.07142794514500306</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4094084876720183</v>
+        <v>0.07142794514500306</v>
       </c>
       <c r="P7" t="n">
-        <v>-2.905737349266235</v>
+        <v>2.899447874484274</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-6.019027366337202, 0.20755266780473125]</t>
+          <t>[1.2893423303021176, 4.50955341866643]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.06661484876924462</v>
+        <v>0.0007284060381758106</v>
       </c>
       <c r="S7" t="n">
-        <v>0.06661484876924462</v>
+        <v>0.0007284060381758106</v>
       </c>
       <c r="T7" t="n">
-        <v>14.17872121449439</v>
+        <v>13.95807969279673</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.187085658073748, 19.170356770915035]</t>
+          <t>[9.462202630227534, 18.45395675536592]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.087270402246105e-07</v>
+        <v>1.313495301413781e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>8.087270402246105e-07</v>
+        <v>1.313495301413781e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>10.17417417417417</v>
+        <v>12.1386586586587</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.7267267267267279</v>
+        <v>6.362642642642666</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.07507507507508</v>
+        <v>17.91467467467474</v>
       </c>
     </row>
     <row r="8">
@@ -1105,73 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3558051498037071</v>
+        <v>0.0565072537166057</v>
       </c>
       <c r="I8" t="n">
-        <v>0.3558051498037071</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.008160362418814571</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.008160362418814571</v>
-      </c>
+        <v>0.0565072537166057</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>5.384901749909296</v>
+        <v>9.275067991422937</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-4.662285655894661, 15.432089155713253]</t>
+          <t>[-0.5216034636991722, 19.071739446545045]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2861253668723203</v>
+        <v>0.06293441103197006</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2861253668723203</v>
+        <v>0.06293441103197006</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.515789912784619</v>
+        <v>-1.874263485024541</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-5.641658879419509, 0.6100790538502707]</t>
+          <t>[-3.4088953318231594, -0.33963163822592346]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.1120029023203168</v>
+        <v>0.01780612037067986</v>
       </c>
       <c r="S8" t="n">
-        <v>0.1120029023203168</v>
+        <v>0.01780612037067986</v>
       </c>
       <c r="T8" t="n">
-        <v>14.19129542303054</v>
+        <v>12.46732867851296</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.928704663391642, 19.453886182669443]</t>
+          <t>[7.268464239488006, 17.666193117537908]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.161912546982947e-06</v>
+        <v>1.616674577653576e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>2.161912546982947e-06</v>
+        <v>1.616674577653576e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>8.808808808808809</v>
+        <v>6.723643643643669</v>
       </c>
       <c r="Y8" t="n">
-        <v>-2.136136136136138</v>
+        <v>1.218378378378381</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.75375375375376</v>
+        <v>12.22890890890896</v>
       </c>
     </row>
     <row r="9">
@@ -1195,73 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7913465499930613</v>
+        <v>0.4923958270643229</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7913465499930613</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.2392513372600462</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2392513372600462</v>
-      </c>
+        <v>0.4923958270643229</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>2.388828958360923</v>
+        <v>4.659313383272799</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-6.90883331793834, 11.686491234660187]</t>
+          <t>[-5.313553597888145, 14.632180364433744]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.6073561699673302</v>
+        <v>0.3517356708705073</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6073561699673302</v>
+        <v>0.3517356708705073</v>
       </c>
       <c r="P9" t="n">
-        <v>-2.201316173686541</v>
+        <v>-1.446579199851156</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-5.339764089885352, 0.9371317425122703]</t>
+          <t>[-4.553579742140161, 1.6604213424378491]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.1646238855839515</v>
+        <v>0.3533837787553524</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1646238855839515</v>
+        <v>0.3533837787553524</v>
       </c>
       <c r="T9" t="n">
-        <v>12.97585252603229</v>
+        <v>15.03299880422804</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.131167247678519, 17.820537804386053]</t>
+          <t>[9.634284395112957, 20.431713213343123]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.448184659220587e-06</v>
+        <v>1.186325277124922e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>2.448184659220587e-06</v>
+        <v>1.186325277124922e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>7.707707707707705</v>
+        <v>5.189389389389408</v>
       </c>
       <c r="Y9" t="n">
-        <v>-3.281281281281281</v>
+        <v>-5.95651651651654</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.69669669669669</v>
+        <v>16.33529529529536</v>
       </c>
     </row>
     <row r="10">
@@ -1285,73 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22</v>
+        <v>22.54000000000008</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03746356416219598</v>
+        <v>0.1024635253661484</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03746356416219598</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.7078138136437544</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.7078138136437544</v>
-      </c>
+        <v>0.1024635253661484</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>8.883199822677032</v>
+        <v>8.549698310991381</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-0.7038480025080958, 18.47024764786216]</t>
+          <t>[-1.8653203344034246, 18.964716956386187]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.0685337047301342</v>
+        <v>0.1052143362337983</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0685337047301342</v>
+        <v>0.1052143362337983</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.7421580242714629</v>
+        <v>-1.044052813805617</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.96234262230389, 1.478026573760964]</t>
+          <t>[-3.9875270117636212, 1.8994213841523866]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.5042190353798857</v>
+        <v>0.4786669541794031</v>
       </c>
       <c r="S10" t="n">
-        <v>0.5042190353798857</v>
+        <v>0.4786669541794031</v>
       </c>
       <c r="T10" t="n">
-        <v>14.16090182417068</v>
+        <v>15.28637459687394</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.312289587273492, 19.009514061067875]</t>
+          <t>[9.759748419473265, 20.813000774274624]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>4.665746105025903e-07</v>
+        <v>1.347232981396829e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>4.665746105025903e-07</v>
+        <v>1.347232981396829e-06</v>
       </c>
       <c r="X10" t="n">
-        <v>2.598598598598599</v>
+        <v>3.745385385385401</v>
       </c>
       <c r="Y10" t="n">
-        <v>-5.175175175175177</v>
+        <v>-6.813893893893917</v>
       </c>
       <c r="Z10" t="n">
-        <v>10.37237237237238</v>
+        <v>14.30466466466472</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_9_sawtooth_01_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_01/cosinor_per_day_fixed_period_9_sawtooth_01_.xlsx
@@ -565,7 +565,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.74000000000058</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03088522663195259</v>
+        <v>0.3411344360273377</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03088522663195259</v>
+        <v>0.3411344360273377</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>8.366330064670988</v>
+        <v>5.289289186975276</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[0.4220105455069927, 16.310649583834984]</t>
+          <t>[-4.184585086129429, 14.763163460079982]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.03945687276303933</v>
+        <v>0.2667722890025863</v>
       </c>
       <c r="O2" t="n">
-        <v>0.03945687276303933</v>
+        <v>0.2667722890025863</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.735895039821387</v>
+        <v>-1.031473864241693</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.00636894577762, -0.4654211338651546]</t>
+          <t>[-4.1636323056585445, 2.1006845771751577]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.008508721077293391</v>
+        <v>0.5105355640483507</v>
       </c>
       <c r="S2" t="n">
-        <v>0.008508721077293391</v>
+        <v>0.5105355640483507</v>
       </c>
       <c r="T2" t="n">
-        <v>15.76630018937874</v>
+        <v>14.52530347409235</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[11.303342192235096, 20.229258186522383]</t>
+          <t>[9.383518675839984, 19.667088272344706]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>6.877407310312833e-09</v>
+        <v>8.996412068640325e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>6.877407310312833e-09</v>
+        <v>8.996412068640325e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>7.111351351351512</v>
+        <v>4.079479479479552</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.906666666666709</v>
+        <v>-8.308208208208359</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.31603603603632</v>
+        <v>16.46716716716746</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.74000000000058</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5392646843658997</v>
+        <v>0.574050452639927</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5392646843658997</v>
+        <v>0.574050452639927</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>3.8274407230112</v>
+        <v>2.743743843892951</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-5.973965464637178, 13.628846910659579]</t>
+          <t>[-4.1427229901690055, 9.630210677954908]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.435693769989218</v>
+        <v>0.4264989745593259</v>
       </c>
       <c r="O3" t="n">
-        <v>0.435693769989218</v>
+        <v>0.4264989745593259</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.9182633181663862</v>
+        <v>-1.924579283280234</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-4.050421759583237, 2.213895123250465]</t>
+          <t>[-5.044158775133161, 1.1950002085726936]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.5578227987402717</v>
+        <v>0.2204618632285755</v>
       </c>
       <c r="S3" t="n">
-        <v>0.5578227987402717</v>
+        <v>0.2204618632285755</v>
       </c>
       <c r="T3" t="n">
-        <v>14.76942864295605</v>
+        <v>10.78476883619602</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.751839292785473, 19.78701799312662]</t>
+          <t>[7.063935555862475, 14.505602116529563]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.985362753144983e-07</v>
+        <v>5.43200950664513e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>3.985362753144983e-07</v>
+        <v>5.43200950664513e-07</v>
       </c>
       <c r="X3" t="n">
-        <v>3.761801801801887</v>
+        <v>7.611711711711848</v>
       </c>
       <c r="Y3" t="n">
-        <v>-9.069549549549757</v>
+        <v>-4.726226226226309</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.59315315315353</v>
+        <v>19.94964964965001</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.74000000000058</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09957213720439895</v>
+        <v>0.5533189955102419</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09957213720439895</v>
+        <v>0.5533189955102419</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>7.274650036110756</v>
+        <v>3.579646506475697</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-1.9240086327748616, 16.473308704996374]</t>
+          <t>[-5.5304563604289765, 12.689749373380371]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1181993319677515</v>
+        <v>0.4328596477528883</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1181993319677515</v>
+        <v>0.4328596477528883</v>
       </c>
       <c r="P4" t="n">
-        <v>-2.188737224122619</v>
+        <v>-0.9685791164220783</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-5.132211422080623, 0.7547369738353851]</t>
+          <t>[-4.107027032620891, 2.1698687997767347]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.1412021325010333</v>
+        <v>0.5373499167085445</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1412021325010333</v>
+        <v>0.5373499167085445</v>
       </c>
       <c r="T4" t="n">
-        <v>17.51074565970484</v>
+        <v>11.96907728066786</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[12.836399499346562, 22.185091820063114]</t>
+          <t>[7.255832799624802, 16.682321761710917]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.595824361544373e-09</v>
+        <v>6.272389005523848e-06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.595824361544373e-09</v>
+        <v>6.272389005523848e-06</v>
       </c>
       <c r="X4" t="n">
-        <v>8.966486486486691</v>
+        <v>3.830730730730799</v>
       </c>
       <c r="Y4" t="n">
-        <v>-3.09189189189196</v>
+        <v>-8.581831831831988</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.02486486486534</v>
+        <v>16.24329329329359</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.74000000000058</v>
+        <v>24.85000000000045</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2169868304656777</v>
+        <v>0.3094653913549339</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2169868304656777</v>
+        <v>0.3094653913549339</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.716783786303225</v>
+        <v>4.779385614490822</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.755493627845752, 14.189061200452201]</t>
+          <t>[-3.3045433391812935, 12.863314568162938]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.180905559062615</v>
+        <v>0.2399837279252541</v>
       </c>
       <c r="O5" t="n">
-        <v>0.180905559062615</v>
+        <v>0.2399837279252541</v>
       </c>
       <c r="P5" t="n">
-        <v>-2.591263610168158</v>
+        <v>-1.484316048542925</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-5.704553627239124, 0.5220264069028087]</t>
+          <t>[-4.509553418666429, 1.540921321580579]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1005978227318052</v>
+        <v>0.3283343936200844</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1005978227318052</v>
+        <v>0.3283343936200844</v>
       </c>
       <c r="T5" t="n">
-        <v>11.70759770551955</v>
+        <v>12.75746304890031</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[7.270544167264392, 16.14465124377471]</t>
+          <t>[8.293096556755021, 17.221829541045604]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.207861656306932e-06</v>
+        <v>7.191107096460314e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>3.207861656306932e-06</v>
+        <v>7.191107096460314e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>10.61549549549574</v>
+        <v>5.870470470470575</v>
       </c>
       <c r="Y5" t="n">
-        <v>-2.138558558558607</v>
+        <v>-6.094344344344451</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.36954954955008</v>
+        <v>17.8352852852856</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.54000000000008</v>
+        <v>23.02000000000016</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0225850289648839</v>
+        <v>0.1927046587619772</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0225850289648839</v>
+        <v>0.1927046587619772</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>8.600553477315366</v>
+        <v>6.016431154560981</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.6789823856655239, 16.522124568965207]</t>
+          <t>[-2.5350689202263785, 14.56793122934834]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0340010614338786</v>
+        <v>0.163361250383061</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0340010614338786</v>
+        <v>0.163361250383061</v>
       </c>
       <c r="P6" t="n">
-        <v>-2.578684660604235</v>
+        <v>-2.855421551010543</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.7611059196130063, -1.3962634015954634]</t>
+          <t>[-5.811474698532471, 0.10063159651138509]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.735063922103102e-05</v>
+        <v>0.05797299963920555</v>
       </c>
       <c r="S6" t="n">
-        <v>6.735063922103102e-05</v>
+        <v>0.05797299963920555</v>
       </c>
       <c r="T6" t="n">
-        <v>14.29289585335755</v>
+        <v>14.14721361286475</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[10.008000163740096, 18.577791542975007]</t>
+          <t>[9.442932116138223, 18.851495109591276]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.669238230446069e-08</v>
+        <v>2.569283159559177e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>2.669238230446069e-08</v>
+        <v>2.569283159559177e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>9.250650650650687</v>
+        <v>10.46154154154162</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.008888888888908</v>
+        <v>-0.3686886886886906</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.49241241241247</v>
+        <v>21.29177177177192</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.54000000000008</v>
+        <v>23.02000000000016</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0712209355252742</v>
+        <v>0.9091857034111724</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0712209355252742</v>
+        <v>0.9091857034111724</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>7.270032452280033</v>
+        <v>1.531869268231503</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.6606236369680367, 15.200688541528102]</t>
+          <t>[-7.935679455386179, 10.999417991849185]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.07142794514500306</v>
+        <v>0.7460211351958921</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07142794514500306</v>
+        <v>0.7460211351958921</v>
       </c>
       <c r="P7" t="n">
-        <v>2.899447874484274</v>
+        <v>2.446605690183042</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.2893423303021176, 4.50955341866643]</t>
+          <t>[-0.69184222601577, 5.585053606381854]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0007284060381758106</v>
+        <v>0.1233945998360459</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0007284060381758106</v>
+        <v>0.1233945998360459</v>
       </c>
       <c r="T7" t="n">
-        <v>13.95807969279673</v>
+        <v>13.21733977310028</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.462202630227534, 18.45395675536592]</t>
+          <t>[8.190653127719791, 18.24402641848077]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.313495301413781e-07</v>
+        <v>3.413635902171919e-06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.313495301413781e-07</v>
+        <v>3.413635902171919e-06</v>
       </c>
       <c r="X7" t="n">
-        <v>12.1386586586587</v>
+        <v>14.05625625625635</v>
       </c>
       <c r="Y7" t="n">
-        <v>6.362642642642666</v>
+        <v>2.557777777777794</v>
       </c>
       <c r="Z7" t="n">
-        <v>17.91467467467474</v>
+        <v>25.55473473473491</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.54000000000008</v>
+        <v>23.02000000000016</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0565072537166057</v>
+        <v>0.3238206888693543</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0565072537166057</v>
+        <v>0.3238206888693543</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>9.275067991422937</v>
+        <v>4.888499512715422</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-0.5216034636991722, 19.071739446545045]</t>
+          <t>[-3.921881944129564, 13.69888096956041]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.06293441103197006</v>
+        <v>0.269695055067416</v>
       </c>
       <c r="O8" t="n">
-        <v>0.06293441103197006</v>
+        <v>0.269695055067416</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.874263485024541</v>
+        <v>-2.503210963220696</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-3.4088953318231594, -0.33963163822592346]</t>
+          <t>[-5.585053606381855, 0.5786316799404627]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01780612037067986</v>
+        <v>0.1088273741718977</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01780612037067986</v>
+        <v>0.1088273741718977</v>
       </c>
       <c r="T8" t="n">
-        <v>12.46732867851296</v>
+        <v>12.81912945540114</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[7.268464239488006, 17.666193117537908]</t>
+          <t>[8.23009083275227, 17.40816807805001]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>1.616674577653576e-05</v>
+        <v>1.116452463811868e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.616674577653576e-05</v>
+        <v>1.116452463811868e-06</v>
       </c>
       <c r="X8" t="n">
-        <v>6.723643643643669</v>
+        <v>9.171131131131196</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.218378378378381</v>
+        <v>-2.119959959959976</v>
       </c>
       <c r="Z8" t="n">
-        <v>12.22890890890896</v>
+        <v>20.46222222222237</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>22.54000000000008</v>
+        <v>23.02000000000016</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4923958270643229</v>
+        <v>0.1527938128592287</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4923958270643229</v>
+        <v>0.1527938128592287</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>4.659313383272799</v>
+        <v>6.841060353182737</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-5.313553597888145, 14.632180364433744]</t>
+          <t>[-2.605969301551468, 16.288090007916942]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.3517356708705073</v>
+        <v>0.1516444685066078</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3517356708705073</v>
+        <v>0.1516444685066078</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.446579199851156</v>
+        <v>-2.088105627611234</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-4.553579742140161, 1.6604213424378491]</t>
+          <t>[-5.163658795990431, 0.9874475407679633]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.3533837787553524</v>
+        <v>0.1782762909864211</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3533837787553524</v>
+        <v>0.1782762909864211</v>
       </c>
       <c r="T9" t="n">
-        <v>15.03299880422804</v>
+        <v>12.76794120676732</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[9.634284395112957, 20.431713213343123]</t>
+          <t>[7.908962395622081, 17.626920017912564]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.186325277124922e-06</v>
+        <v>3.454002738489947e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>1.186325277124922e-06</v>
+        <v>3.454002738489947e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>5.189389389389408</v>
+        <v>7.650290290290343</v>
       </c>
       <c r="Y9" t="n">
-        <v>-5.95651651651654</v>
+        <v>-3.617757757757785</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.33529529529536</v>
+        <v>18.91833833833847</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.54000000000008</v>
+        <v>23.02000000000016</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1024635253661484</v>
+        <v>0.2800453505385865</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1024635253661484</v>
+        <v>0.2800453505385865</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>8.549698310991381</v>
+        <v>4.182560612812056</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.8653203344034246, 18.964716956386187]</t>
+          <t>[-2.7785498736132475, 11.143671099237359]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1052143362337983</v>
+        <v>0.2325332163953584</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1052143362337983</v>
+        <v>0.2325332163953584</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.044052813805617</v>
+        <v>-1.182421259008771</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-3.9875270117636212, 1.8994213841523866]</t>
+          <t>[-4.289421801297776, 1.9245792832802326]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.4786669541794031</v>
+        <v>0.4473808742932319</v>
       </c>
       <c r="S10" t="n">
-        <v>0.4786669541794031</v>
+        <v>0.4473808742932319</v>
       </c>
       <c r="T10" t="n">
-        <v>15.28637459687394</v>
+        <v>10.98712434837323</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[9.759748419473265, 20.813000774274624]</t>
+          <t>[7.352181928770284, 14.62206676797618]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.347232981396829e-06</v>
+        <v>2.311706548407955e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.347232981396829e-06</v>
+        <v>2.311706548407955e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>3.745385385385401</v>
+        <v>4.332092092092122</v>
       </c>
       <c r="Y10" t="n">
-        <v>-6.813893893893917</v>
+        <v>-7.051171171171219</v>
       </c>
       <c r="Z10" t="n">
-        <v>14.30466466466472</v>
+        <v>15.71535535535546</v>
       </c>
     </row>
   </sheetData>
